--- a/flows/UNG_fund_flow_data.xlsx
+++ b/flows/UNG_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4245"/>
+  <dimension ref="A1:B4265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42885,6 +42885,206 @@
         <v>38.9974</v>
       </c>
     </row>
+    <row r="4246">
+      <c r="A4246" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4247" t="n">
+        <v>-34.944</v>
+      </c>
+    </row>
+    <row r="4248">
+      <c r="A4248" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4248" t="n">
+        <v>-8.182499999999999</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4249" t="n">
+        <v>27.3204</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4250" t="n">
+        <v>32.7285</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4251" t="n">
+        <v>-58.1724</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4253" t="n">
+        <v>-4.9881</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4255" t="n">
+        <v>-27.416</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4257" t="n">
+        <v>-27.608</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4258" t="n">
+        <v>-4.8792</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4263" t="n">
+        <v>29.6096</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B4264" t="n">
+        <v>31.3614</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B4265" t="n">
+        <v>-3.0608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
